--- a/SanPham.xlsx
+++ b/SanPham.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thuan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EB9D33-B959-4A11-ACAC-36E5A7A9207C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D11124C-D9B3-4F02-A34F-DFE04327DA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="936" windowWidth="21624" windowHeight="11304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DanhSachHoaDon" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
   <si>
     <t>Mã sản phẩm</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Mô tả</t>
   </si>
   <si>
-    <t>Bút bi Thiên Long TL-027 Mực xanh</t>
-  </si>
-  <si>
     <t>Dụng cụ học tập</t>
   </si>
   <si>
@@ -76,250 +73,169 @@
     <t/>
   </si>
   <si>
-    <t>src/main/resources/images/light/butBiThienLongXanh.jpg</t>
-  </si>
-  <si>
-    <t>Bút bi quốc dân</t>
-  </si>
-  <si>
-    <t>Rubik3x3 8733-5</t>
-  </si>
-  <si>
     <t>Đồ chơi</t>
   </si>
   <si>
     <t>Công ty 21</t>
   </si>
   <si>
-    <t>Cục</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>src/main/resources/images/light/rubik3x3_8733-5.jpg</t>
-  </si>
-  <si>
-    <t>Rubik quay tay</t>
-  </si>
-  <si>
-    <t>Dập Ghim Deli 316 - Màu Đen</t>
-  </si>
-  <si>
     <t>Văn phòng phẩm</t>
   </si>
   <si>
-    <t>src/main/resources/images/light/dapGhimDeli316.jpg</t>
-  </si>
-  <si>
-    <t>Dập ghim cao cấp</t>
-  </si>
-  <si>
-    <t>Bình Nước Học Sinh Có Vòi Phun 700 ml</t>
-  </si>
-  <si>
     <t>Quà lưu niệm</t>
   </si>
   <si>
     <t>Công ty 22</t>
   </si>
   <si>
-    <t>Bình</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
-    <t>src/main/resources/images/light/binhNuocHocSinh.jpg</t>
-  </si>
-  <si>
-    <t>Frozen Elsa - HooHooHaHa GDH03-2604</t>
-  </si>
-  <si>
-    <t>Lord of the Rings: The Fellowship of the Ring</t>
-  </si>
-  <si>
     <t>Sách</t>
   </si>
   <si>
     <t>Quyển</t>
   </si>
   <si>
-    <t>J.R.R. Tolkien</t>
-  </si>
-  <si>
-    <t>Houghton Mifflin Harcourt</t>
-  </si>
-  <si>
-    <t>1954</t>
-  </si>
-  <si>
-    <t>432</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>src/main/resources/images/light/lordOfTheRing.png</t>
-  </si>
-  <si>
-    <t>Lord of the Rings series - Book 1</t>
-  </si>
-  <si>
-    <t>Harry Potter and the Sorcerer's Stone</t>
-  </si>
-  <si>
     <t>Công ty A</t>
   </si>
   <si>
-    <t>J.K. Rowling</t>
-  </si>
-  <si>
-    <t>Scholastic</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">src/main/resources/images/light/harryPotter.jpg </t>
-  </si>
-  <si>
-    <t>Harry Potter series - Book 1</t>
-  </si>
-  <si>
-    <t>Đệ nhất kiếm tiền</t>
-  </si>
-  <si>
-    <t>Công ty 23</t>
-  </si>
-  <si>
-    <t>Huấn hoa hồng</t>
-  </si>
-  <si>
-    <t>NXB SG</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>src/main/resources/images/light/deNhatKiemTien.png</t>
-  </si>
-  <si>
-    <t>Có làm thì mới có ăn</t>
-  </si>
-  <si>
-    <t>Tiếng Việt thực hành</t>
-  </si>
-  <si>
-    <t>Bùi Minh Toán</t>
-  </si>
-  <si>
-    <t>Giáo dục Việt Nam</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>src/main/resources/images/light/tiengVietThucHanh.png</t>
-  </si>
-  <si>
-    <t>Giáo trình</t>
-  </si>
-  <si>
-    <t>Cho tôi xin một vé đi tuổi thơ</t>
-  </si>
-  <si>
-    <t>Nguyễn Nhật Ánh</t>
-  </si>
-  <si>
-    <t>Trẻ</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>src/main/resources/images/light/choToiXinMotVeDiTuoiTho.jpg</t>
-  </si>
-  <si>
-    <t>Sách tuổi thơ</t>
-  </si>
-  <si>
-    <t>Đắc nhân tâm</t>
-  </si>
-  <si>
-    <t>Dale Carnegie</t>
+    <t>Doanh Thu</t>
+  </si>
+  <si>
+    <t>8935001847239</t>
+  </si>
+  <si>
+    <t>8935001853235</t>
+  </si>
+  <si>
+    <t>8935000913231</t>
+  </si>
+  <si>
+    <t>Xe Điều Khiển Ferrari SF90</t>
+  </si>
+  <si>
+    <t>Chiếc</t>
+  </si>
+  <si>
+    <t>src/main/resources/images/light/ferrari.jpg</t>
+  </si>
+  <si>
+    <t>Stradale 1:24 - Rastar R97600 - Màu Đỏ</t>
+  </si>
+  <si>
+    <t>Xóa Kéo 5 mm x 5 m</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>src/main/resources/images/light/xoaKeo5x5mm.jpg</t>
+  </si>
+  <si>
+    <t>Plus 49-V972 - Màu Hồng</t>
+  </si>
+  <si>
+    <t>Đồng Hồ Reo</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>src/main/resources/images/light/dongHoReo.jpg</t>
+  </si>
+  <si>
+    <t>Zhong Yi Xuan SA123MX - Màu Đen</t>
+  </si>
+  <si>
+    <t>8935000918765</t>
+  </si>
+  <si>
+    <t>Máy Tính Casio FX 580 VN X</t>
+  </si>
+  <si>
+    <t>src/main/resources/images/light/mayTinhCasiofx580.jpg</t>
+  </si>
+  <si>
+    <t>Máy tính cầm tay</t>
+  </si>
+  <si>
+    <t>9786049600434</t>
+  </si>
+  <si>
+    <t>Life BRE A2-B1</t>
+  </si>
+  <si>
+    <t>John Hughes</t>
+  </si>
+  <si>
+    <t>Cengage</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>src/main/resources/images/light/lifeA2-B1.jpg</t>
+  </si>
+  <si>
+    <t>Student Book With Web App Code And Online Workbook 2nd Edition</t>
+  </si>
+  <si>
+    <t>9786043780499</t>
+  </si>
+  <si>
+    <t>Quiet Influence</t>
+  </si>
+  <si>
+    <t>Jennifer B.Kahnweiler</t>
   </si>
   <si>
     <t>Dân Trí</t>
   </si>
   <si>
-    <t>1936</t>
-  </si>
-  <si>
-    <t>486</t>
-  </si>
-  <si>
-    <t>src/main/resources/images/light/dacNhanTam.png</t>
+    <t>70</t>
+  </si>
+  <si>
+    <t>src/main/resources/images/light/quiet.jpg</t>
   </si>
   <si>
     <t>Sách phát triển bản thân</t>
   </si>
   <si>
-    <t>Doanh Thu</t>
-  </si>
-  <si>
-    <t>269</t>
-  </si>
-  <si>
-    <t>8935001800348</t>
-  </si>
-  <si>
-    <t>8935001847239</t>
-  </si>
-  <si>
-    <t>8935001853235</t>
-  </si>
-  <si>
-    <t>8935000913231</t>
-  </si>
-  <si>
-    <t>9780007143827</t>
-  </si>
-  <si>
-    <t>9780747544374</t>
-  </si>
-  <si>
-    <t>9781234567862</t>
-  </si>
-  <si>
-    <t>9786040039468</t>
-  </si>
-  <si>
-    <t>9786041014757</t>
-  </si>
-  <si>
-    <t>9786048878623</t>
-  </si>
-  <si>
-    <t>25</t>
+    <t>97860400123456</t>
+  </si>
+  <si>
+    <t>Đồi gió hú</t>
+  </si>
+  <si>
+    <t>Emily Bronte</t>
+  </si>
+  <si>
+    <t>Văn Học</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>src/main/resources/images/light/doiGioHu.jpg</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>492</t>
   </si>
 </sst>
 </file>
@@ -360,10 +276,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,7 +598,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -737,396 +654,261 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="K2">
-        <v>4000</v>
+        <v>400000</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="K3">
-        <v>42</v>
+        <v>22000</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="K4">
-        <v>85.5</v>
+        <v>188000</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="M4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>196</v>
+        <v>700000</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="K6">
-        <v>239</v>
+        <v>260000</v>
       </c>
       <c r="L6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="K7">
-        <v>734.5</v>
+        <v>128000</v>
       </c>
       <c r="L7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="M7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8">
+        <v>100000</v>
+      </c>
+      <c r="L8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" t="s">
         <v>60</v>
       </c>
-      <c r="I8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8">
-        <v>800</v>
-      </c>
-      <c r="L8" t="s">
-        <v>63</v>
-      </c>
-      <c r="M8" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9">
-        <v>55</v>
-      </c>
-      <c r="L9" t="s">
-        <v>71</v>
-      </c>
-      <c r="M9" t="s">
-        <v>72</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10">
-        <v>80</v>
-      </c>
-      <c r="L10" t="s">
-        <v>78</v>
-      </c>
-      <c r="M10" t="s">
-        <v>79</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K11">
-        <v>82</v>
-      </c>
-      <c r="L11" t="s">
-        <v>85</v>
-      </c>
-      <c r="M11" t="s">
-        <v>86</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L12" s="1" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/SanPham.xlsx
+++ b/SanPham.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thuan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D11124C-D9B3-4F02-A34F-DFE04327DA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EB9D33-B959-4A11-ACAC-36E5A7A9207C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="936" windowWidth="21624" windowHeight="11304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DanhSachHoaDon" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="100">
   <si>
     <t>Mã sản phẩm</t>
   </si>
@@ -61,6 +61,9 @@
     <t>Mô tả</t>
   </si>
   <si>
+    <t>Bút bi Thiên Long TL-027 Mực xanh</t>
+  </si>
+  <si>
     <t>Dụng cụ học tập</t>
   </si>
   <si>
@@ -73,39 +76,222 @@
     <t/>
   </si>
   <si>
+    <t>src/main/resources/images/light/butBiThienLongXanh.jpg</t>
+  </si>
+  <si>
+    <t>Bút bi quốc dân</t>
+  </si>
+  <si>
+    <t>Rubik3x3 8733-5</t>
+  </si>
+  <si>
     <t>Đồ chơi</t>
   </si>
   <si>
     <t>Công ty 21</t>
   </si>
   <si>
+    <t>Cục</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>src/main/resources/images/light/rubik3x3_8733-5.jpg</t>
+  </si>
+  <si>
+    <t>Rubik quay tay</t>
+  </si>
+  <si>
+    <t>Dập Ghim Deli 316 - Màu Đen</t>
+  </si>
+  <si>
     <t>Văn phòng phẩm</t>
   </si>
   <si>
+    <t>src/main/resources/images/light/dapGhimDeli316.jpg</t>
+  </si>
+  <si>
+    <t>Dập ghim cao cấp</t>
+  </si>
+  <si>
+    <t>Bình Nước Học Sinh Có Vòi Phun 700 ml</t>
+  </si>
+  <si>
     <t>Quà lưu niệm</t>
   </si>
   <si>
     <t>Công ty 22</t>
   </si>
   <si>
+    <t>Bình</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
+    <t>src/main/resources/images/light/binhNuocHocSinh.jpg</t>
+  </si>
+  <si>
+    <t>Frozen Elsa - HooHooHaHa GDH03-2604</t>
+  </si>
+  <si>
+    <t>Lord of the Rings: The Fellowship of the Ring</t>
+  </si>
+  <si>
     <t>Sách</t>
   </si>
   <si>
     <t>Quyển</t>
   </si>
   <si>
+    <t>J.R.R. Tolkien</t>
+  </si>
+  <si>
+    <t>Houghton Mifflin Harcourt</t>
+  </si>
+  <si>
+    <t>1954</t>
+  </si>
+  <si>
+    <t>432</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>src/main/resources/images/light/lordOfTheRing.png</t>
+  </si>
+  <si>
+    <t>Lord of the Rings series - Book 1</t>
+  </si>
+  <si>
+    <t>Harry Potter and the Sorcerer's Stone</t>
+  </si>
+  <si>
     <t>Công ty A</t>
   </si>
   <si>
+    <t>J.K. Rowling</t>
+  </si>
+  <si>
+    <t>Scholastic</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">src/main/resources/images/light/harryPotter.jpg </t>
+  </si>
+  <si>
+    <t>Harry Potter series - Book 1</t>
+  </si>
+  <si>
+    <t>Đệ nhất kiếm tiền</t>
+  </si>
+  <si>
+    <t>Công ty 23</t>
+  </si>
+  <si>
+    <t>Huấn hoa hồng</t>
+  </si>
+  <si>
+    <t>NXB SG</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
+    <t>src/main/resources/images/light/deNhatKiemTien.png</t>
+  </si>
+  <si>
+    <t>Có làm thì mới có ăn</t>
+  </si>
+  <si>
+    <t>Tiếng Việt thực hành</t>
+  </si>
+  <si>
+    <t>Bùi Minh Toán</t>
+  </si>
+  <si>
+    <t>Giáo dục Việt Nam</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>src/main/resources/images/light/tiengVietThucHanh.png</t>
+  </si>
+  <si>
+    <t>Giáo trình</t>
+  </si>
+  <si>
+    <t>Cho tôi xin một vé đi tuổi thơ</t>
+  </si>
+  <si>
+    <t>Nguyễn Nhật Ánh</t>
+  </si>
+  <si>
+    <t>Trẻ</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>src/main/resources/images/light/choToiXinMotVeDiTuoiTho.jpg</t>
+  </si>
+  <si>
+    <t>Sách tuổi thơ</t>
+  </si>
+  <si>
+    <t>Đắc nhân tâm</t>
+  </si>
+  <si>
+    <t>Dale Carnegie</t>
+  </si>
+  <si>
+    <t>Dân Trí</t>
+  </si>
+  <si>
+    <t>1936</t>
+  </si>
+  <si>
+    <t>486</t>
+  </si>
+  <si>
+    <t>src/main/resources/images/light/dacNhanTam.png</t>
+  </si>
+  <si>
+    <t>Sách phát triển bản thân</t>
+  </si>
+  <si>
     <t>Doanh Thu</t>
   </si>
   <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>8935001800348</t>
+  </si>
+  <si>
     <t>8935001847239</t>
   </si>
   <si>
@@ -115,127 +301,25 @@
     <t>8935000913231</t>
   </si>
   <si>
-    <t>Xe Điều Khiển Ferrari SF90</t>
-  </si>
-  <si>
-    <t>Chiếc</t>
-  </si>
-  <si>
-    <t>src/main/resources/images/light/ferrari.jpg</t>
-  </si>
-  <si>
-    <t>Stradale 1:24 - Rastar R97600 - Màu Đỏ</t>
-  </si>
-  <si>
-    <t>Xóa Kéo 5 mm x 5 m</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>src/main/resources/images/light/xoaKeo5x5mm.jpg</t>
-  </si>
-  <si>
-    <t>Plus 49-V972 - Màu Hồng</t>
-  </si>
-  <si>
-    <t>Đồng Hồ Reo</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>src/main/resources/images/light/dongHoReo.jpg</t>
-  </si>
-  <si>
-    <t>Zhong Yi Xuan SA123MX - Màu Đen</t>
-  </si>
-  <si>
-    <t>8935000918765</t>
-  </si>
-  <si>
-    <t>Máy Tính Casio FX 580 VN X</t>
-  </si>
-  <si>
-    <t>src/main/resources/images/light/mayTinhCasiofx580.jpg</t>
-  </si>
-  <si>
-    <t>Máy tính cầm tay</t>
-  </si>
-  <si>
-    <t>9786049600434</t>
-  </si>
-  <si>
-    <t>Life BRE A2-B1</t>
-  </si>
-  <si>
-    <t>John Hughes</t>
-  </si>
-  <si>
-    <t>Cengage</t>
+    <t>9780007143827</t>
+  </si>
+  <si>
+    <t>9780747544374</t>
+  </si>
+  <si>
+    <t>9781234567862</t>
+  </si>
+  <si>
+    <t>9786040039468</t>
+  </si>
+  <si>
+    <t>9786041014757</t>
+  </si>
+  <si>
+    <t>9786048878623</t>
   </si>
   <si>
     <t>25</t>
-  </si>
-  <si>
-    <t>src/main/resources/images/light/lifeA2-B1.jpg</t>
-  </si>
-  <si>
-    <t>Student Book With Web App Code And Online Workbook 2nd Edition</t>
-  </si>
-  <si>
-    <t>9786043780499</t>
-  </si>
-  <si>
-    <t>Quiet Influence</t>
-  </si>
-  <si>
-    <t>Jennifer B.Kahnweiler</t>
-  </si>
-  <si>
-    <t>Dân Trí</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>src/main/resources/images/light/quiet.jpg</t>
-  </si>
-  <si>
-    <t>Sách phát triển bản thân</t>
-  </si>
-  <si>
-    <t>97860400123456</t>
-  </si>
-  <si>
-    <t>Đồi gió hú</t>
-  </si>
-  <si>
-    <t>Emily Bronte</t>
-  </si>
-  <si>
-    <t>Văn Học</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>src/main/resources/images/light/doiGioHu.jpg</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>492</t>
   </si>
 </sst>
 </file>
@@ -276,11 +360,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,7 +681,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,261 +737,396 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2">
+        <v>4000</v>
+      </c>
+      <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2">
-        <v>400000</v>
-      </c>
-      <c r="L2" t="s">
-        <v>33</v>
-      </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="K3">
-        <v>22000</v>
+        <v>42</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4">
+        <v>85.5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s">
         <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4">
-        <v>188000</v>
-      </c>
-      <c r="L4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="K5">
-        <v>700000</v>
+        <v>196</v>
       </c>
       <c r="L5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6">
+        <v>239</v>
+      </c>
+      <c r="L6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" t="s">
         <v>47</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6">
-        <v>260000</v>
-      </c>
-      <c r="L6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7">
+        <v>734.5</v>
+      </c>
+      <c r="L7" t="s">
         <v>54</v>
       </c>
-      <c r="B7" t="s">
+      <c r="M7" t="s">
         <v>55</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7">
-        <v>128000</v>
-      </c>
-      <c r="L7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" t="s">
         <v>61</v>
       </c>
-      <c r="B8" t="s">
+      <c r="J8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="K8">
+        <v>800</v>
+      </c>
+      <c r="L8" t="s">
         <v>63</v>
       </c>
-      <c r="G8" t="s">
+      <c r="M8" t="s">
         <v>64</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8">
-        <v>100000</v>
-      </c>
-      <c r="L8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M8" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9">
+        <v>55</v>
+      </c>
+      <c r="L9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10">
+        <v>80</v>
+      </c>
+      <c r="L10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11">
+        <v>82</v>
+      </c>
+      <c r="L11" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L12" s="1" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
